--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/11/parameters.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/11/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2000</v>
+        <v>1682.280760402198</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0003569906731489316</v>
+        <v>0.0004704123008879535</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2</v>
+        <v>0.122153941325773</v>
       </c>
     </row>
   </sheetData>
